--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -2809,7 +2809,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3066,16 +3066,8 @@
           <t>12)</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3109,16 +3101,8 @@
           <t>13)</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3147,21 +3131,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -1620,7 +1620,11 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Brianna's Prius having work done at Butitta Bros on Alpine</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -3061,11 +3065,7 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -3096,11 +3096,7 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -610,7 +610,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Prius can be picked up after the store (Butitta)</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -2723,7 +2727,7 @@
       <c r="O47" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Gray Van</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -2850,7 +2854,7 @@
       <c r="O49" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Gray Van</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -1353,7 +1353,11 @@
           <t>Nate</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>*meet Brianna @ 6:00</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2099,21 +2099,9 @@
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2191,7 +2179,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2238,7 +2230,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2281,7 +2273,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2328,7 +2320,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2375,7 +2367,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2420,11 +2412,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2466,9 +2454,21 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2507,17 +2507,17 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2571,12 +2571,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2630,12 +2630,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2666,10 +2666,15 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -2689,12 +2694,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -2725,13 +2730,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -2753,12 +2757,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -2789,12 +2793,13 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -2816,12 +2821,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2845,22 +2850,9 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -2868,12 +2860,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -2907,12 +2899,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -2937,7 +2929,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -2946,12 +2942,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -2978,7 +2974,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -2989,12 +2985,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3021,7 +3017,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3030,21 +3026,9 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3064,7 +3048,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
+          <t>515 E JEFFERSON ST</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3095,7 +3079,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>515 E JEFFERSON ST</t>
+          <t>https://goo.gl/maps/HwMixMJfHf32</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3126,7 +3110,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HwMixMJfHf32</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3155,11 +3139,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3185,9 +3165,21 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3214,19 +3206,15 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3253,7 +3241,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -3288,7 +3276,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -3296,7 +3284,11 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3323,7 +3315,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -3358,7 +3350,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -3393,7 +3385,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -3428,7 +3420,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -3448,41 +3440,6 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -2865,7 +2865,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">

--- a/05-25-25 to 05-31-25 Madison Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Madison Schedule.xlsx
@@ -2048,21 +2048,9 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2140,7 +2128,11 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2181,7 +2173,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2230,7 +2222,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2273,7 +2265,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2320,7 +2312,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2365,11 +2357,7 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2411,9 +2399,21 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2456,17 +2456,17 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2507,12 +2507,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2571,12 +2571,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2630,12 +2630,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2694,12 +2694,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -2757,12 +2757,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -2821,12 +2821,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2860,12 +2860,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -2899,12 +2899,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -2942,12 +2942,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -2983,21 +2983,9 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
